--- a/P9/p9.xlsx
+++ b/P9/p9.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/884e976655a471a8/Documents/VSC/INF-354/PrimerParcial/P9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D2F04E46CFB4ACB3E20B5ED15E19A693EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3111E0B-FA80-4731-A040-0AAAEE7946D2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D2F04E46CFB4ACB3E20B5ED15E19A693EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCFA6F3-93C7-406F-9675-6874CAA447D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>Poblacion</t>
   </si>
@@ -58,13 +59,142 @@
   </si>
   <si>
     <t>Se intercambiaran dos elementos cuales quiero dentro del individuo</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>UR DL DR DR RD RD LU DL RD DL UR DL LD UL RD LD</t>
+  </si>
+  <si>
+    <t>LU DL UR UR LU DL RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>Poblacion 1</t>
+  </si>
+  <si>
+    <t>Ind 1</t>
+  </si>
+  <si>
+    <t>Ind 2</t>
+  </si>
+  <si>
+    <t>Ind1</t>
+  </si>
+  <si>
+    <t>Ind2</t>
+  </si>
+  <si>
+    <t>UR DL UR UR LU DL RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>LU DL DR DR RD RD LU DL RD DL UR DL LD UL RD LD</t>
+  </si>
+  <si>
+    <t>A partir de una posicion cualquiera, se intercambian los genes de dos individuos</t>
+  </si>
+  <si>
+    <t>RD DL UR UR LU DL RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>DR DL DR DR RD RD LU DL RD DL UR DL LD UL RD LD</t>
+  </si>
+  <si>
+    <t>0 o mas genes pueden cambiar por cualquier otro gen de manera aleatoria</t>
+  </si>
+  <si>
+    <t>EV=2</t>
+  </si>
+  <si>
+    <t>Poblacion 2</t>
+  </si>
+  <si>
+    <t>EV=3</t>
+  </si>
+  <si>
+    <t>EV=1</t>
+  </si>
+  <si>
+    <t>Como el primer elemento de los genes del Ind 1 indica que se debe ir arriba a la derecha y este no es un movimiento valido, el fitnees es 1</t>
+  </si>
+  <si>
+    <t>Como el primer elemento de los genes del Ind 2 indica que se debe ir Izquiera abajo y este no es un movimiento valido, el fitnees es 1</t>
+  </si>
+  <si>
+    <t>El tercer gen indica que se debe ir dos casillas abajo y una a la izquierda, este no es un movimiento valido, el fitnees es 2</t>
+  </si>
+  <si>
+    <t>Poblacion 3</t>
+  </si>
+  <si>
+    <t>Una vez llegado al 3er gen, el 4to nos indica de ir dos casillas arriba y una a la derecha, la cual no lleva a una casilla que ya pasamos, por lo que el movimiento es invalido, el fitnees es 3</t>
+  </si>
+  <si>
+    <t>Una vez llegado al 3er gen, el 4to nos idica de ir dos casillas arriba y una a la derecha, la cual no lleva a una casilla que ya pasamos, por lo que el movimiento es invalido, el fitnees es 4</t>
+  </si>
+  <si>
+    <t>EV=4</t>
+  </si>
+  <si>
+    <t>RD DL UR UR LU DL LU DL RD DL UR DL LD UL RD LD</t>
+  </si>
+  <si>
+    <t>DR DL DR DR RD RD RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>RD DL RU UR LU DL LU DL LD DL UR DL RD UL RD LD</t>
+  </si>
+  <si>
+    <t>DR DL UR UL RD RD RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>RD DL RU UL RD RD RD RD DL RD LU UL DR RU LU DR</t>
+  </si>
+  <si>
+    <t>DR DL UR UR LU DL LU DL LD DL UR DL RD UL RD LD</t>
+  </si>
+  <si>
+    <t>DR UR LD UR LU DL LU DL LD DL UR DL RD UL RD LD</t>
+  </si>
+  <si>
+    <t>EV=5</t>
+  </si>
+  <si>
+    <t>El 5to gen nos idica de ir dos casillas a la derecha y una abajo, lo cual no es un movimiento invalido, el fitnees es 5</t>
+  </si>
+  <si>
+    <t>El 4to gen nos idica de ir dos casillas arriba y una a la derecha, lo cual no es un movimiento invalido, el fitnees es 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +202,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +259,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -149,23 +298,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -184,11 +370,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -487,40 +715,40 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -532,23 +760,23 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>11</v>
       </c>
       <c r="D5">
@@ -557,9 +785,9 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -571,18 +799,18 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>13</v>
       </c>
       <c r="D7">
@@ -596,875 +824,870 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="O12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="2" t="s">
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="T12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="2" t="s">
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>15</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="10">
         <v>3</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="10">
         <v>9</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="6">
         <v>15</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="6">
         <v>6</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="7">
         <v>3</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="6">
         <v>9</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="6">
         <v>10</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="6">
         <v>6</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="7">
         <v>3</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="6">
         <v>9</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="6">
         <v>10</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="6">
         <v>6</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="7">
         <v>3</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>10</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>11</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="10">
         <v>2</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="10">
         <v>1</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="6">
         <v>10</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="7">
         <v>11</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="6">
         <v>1</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="6">
         <v>15</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="7">
         <v>11</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="6">
         <v>2</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="6">
         <v>1</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="6">
         <v>15</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="7">
         <v>1</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="6">
         <v>2</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>5</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>7</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>4</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <v>0</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="6">
         <v>5</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="6">
         <v>7</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="6">
         <v>4</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="8">
         <v>0</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="6">
         <v>5</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="6">
         <v>7</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="6">
         <v>4</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="8">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="6">
         <v>5</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="6">
         <v>7</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="6">
         <v>4</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AB16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>12</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>13</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="10">
         <v>8</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <v>14</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="6">
         <v>12</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="7">
         <v>13</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="6">
         <v>8</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="6">
         <v>14</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="6">
         <v>12</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="7">
         <v>13</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="6">
         <v>8</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="6">
         <v>14</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="6">
         <v>12</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="7">
         <v>13</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="6">
         <v>8</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="6">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="O18" s="20">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="O18" s="19">
         <v>0</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
     </row>
     <row r="19" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <v>10</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="10">
         <v>6</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="10">
         <v>3</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="10">
         <v>9</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="6">
         <v>10</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="6">
         <v>6</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="10">
         <v>3</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="7">
         <v>9</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="6">
         <v>10</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="6">
         <v>6</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="10">
         <v>3</v>
       </c>
-      <c r="W20" s="10">
+      <c r="W20" s="7">
         <v>9</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="6">
         <v>10</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="6">
         <v>6</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="10">
         <v>3</v>
       </c>
-      <c r="AB20" s="10">
+      <c r="AB20" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J21" s="13">
+      <c r="J21" s="10">
         <v>15</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="10">
         <v>2</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="10">
         <v>11</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="6">
         <v>15</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="9">
         <v>1</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="6">
         <v>2</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="6">
         <v>11</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="6">
         <v>15</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="9">
         <v>1</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="6">
         <v>2</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="6">
         <v>11</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="6">
         <v>15</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="9">
         <v>1</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="6">
         <v>14</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <v>5</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="10">
         <v>7</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="10">
         <v>4</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="10">
         <v>0</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="6">
         <v>5</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="6">
         <v>7</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="Q22" s="6">
         <v>4</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="8">
         <v>0</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="6">
         <v>5</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="6">
         <v>7</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="6">
         <v>4</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="8">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="6">
         <v>5</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="6">
         <v>7</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="6">
         <v>4</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AB22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <v>12</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="10">
         <v>13</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="10">
         <v>8</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="10">
         <v>14</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="7">
         <v>12</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <v>13</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="7">
         <v>8</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="6">
         <v>14</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="7">
         <v>14</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="10">
         <v>13</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="7">
         <v>8</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="6">
         <v>12</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="7">
         <v>2</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="10">
         <v>13</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="7">
         <v>8</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="O24" s="21">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="O24" s="17">
         <v>1</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="19"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="19"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="16"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="16"/>
     </row>
     <row r="25" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J26" s="13">
+      <c r="J26" s="10">
         <v>10</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="10">
         <v>6</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="10">
         <v>3</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="10">
         <v>9</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="6">
         <v>10</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="6">
         <v>6</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="10">
         <v>3</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="10">
         <v>9</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="6">
         <v>10</v>
       </c>
-      <c r="U26" s="9">
+      <c r="U26" s="6">
         <v>6</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="10">
         <v>15</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="10">
         <v>9</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="6">
         <v>10</v>
       </c>
-      <c r="Z26" s="9">
+      <c r="Z26" s="6">
         <v>6</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="10">
         <v>15</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J27" s="13">
+      <c r="J27" s="10">
         <v>15</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="10">
         <v>1</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="10">
         <v>14</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="10">
         <v>11</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="6">
         <v>15</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="9">
         <v>1</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="6">
         <v>14</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="6">
         <v>11</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="6">
         <v>3</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="9">
         <v>1</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="6">
         <v>14</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="6">
         <v>11</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="6">
         <v>4</v>
       </c>
-      <c r="Z27" s="12">
+      <c r="Z27" s="9">
         <v>1</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="6">
         <v>14</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J28" s="13">
+      <c r="J28" s="10">
         <v>5</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="10">
         <v>7</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="10">
         <v>4</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="10">
         <v>0</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="6">
         <v>5</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="6">
         <v>7</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="7">
         <v>4</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="8">
         <v>0</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="6">
         <v>5</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="6">
         <v>7</v>
       </c>
-      <c r="V28" s="10">
+      <c r="V28" s="7">
         <v>4</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="8">
         <v>0</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="6">
         <v>5</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28" s="6">
         <v>7</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AA28" s="7">
         <v>3</v>
       </c>
-      <c r="AB28" s="11">
+      <c r="AB28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J29" s="13">
+      <c r="J29" s="10">
         <v>2</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="10">
         <v>13</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="10">
         <v>8</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="10">
         <v>12</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="11">
         <v>2</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <v>13</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="10">
         <v>8</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="6">
         <v>12</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="11">
         <v>2</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="10">
         <v>13</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="10">
         <v>8</v>
       </c>
-      <c r="W29" s="9">
+      <c r="W29" s="6">
         <v>12</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="11">
         <v>2</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="10">
         <v>13</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="10">
         <v>8</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="6">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="O30" s="21">
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="O30" s="17">
         <v>2</v>
       </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="19"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="19"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="16"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="16"/>
     </row>
     <row r="31" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="10:28" x14ac:dyDescent="0.3">
-      <c r="J32" s="13">
+      <c r="J32" s="10">
         <v>10</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="10">
         <v>6</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="10">
         <v>15</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="10">
         <v>9</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <v>10</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="6">
         <v>6</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="7">
         <v>15</v>
       </c>
-      <c r="R32" s="13">
+      <c r="R32" s="10">
         <v>9</v>
       </c>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
     </row>
     <row r="33" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J33" s="13">
+      <c r="J33" s="10">
         <v>4</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="10">
         <v>1</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="10">
         <v>14</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="10">
         <v>11</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="13">
         <v>4</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="9">
         <v>1</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="6">
         <v>14</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="6">
         <v>11</v>
       </c>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
     </row>
     <row r="34" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J34" s="13">
+      <c r="J34" s="10">
         <v>5</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="10">
         <v>7</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="10">
         <v>3</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="10">
         <v>0</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="6">
         <v>5</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="6">
         <v>7</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="12">
         <v>3</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34" s="8">
         <v>0</v>
       </c>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
     </row>
     <row r="35" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J35" s="13">
+      <c r="J35" s="10">
         <v>2</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="10">
         <v>13</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="10">
         <v>8</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="10">
         <v>12</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="11">
         <v>2</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="7">
         <v>13</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="10">
         <v>8</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="6">
         <v>12</v>
       </c>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
     </row>
     <row r="36" spans="10:23" x14ac:dyDescent="0.3">
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="O36" s="21">
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="O36" s="17">
         <v>4</v>
       </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="O12:R12"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="O18:R18"/>
@@ -1473,8 +1696,1103 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="F4:H6"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83811EB0-08EB-49F1-BB21-EF125C73DD92}">
+  <dimension ref="A1:AO31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="11" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="20" width="2.77734375" customWidth="1"/>
+    <col min="25" max="25" width="5.44140625" customWidth="1"/>
+    <col min="26" max="29" width="2.77734375" customWidth="1"/>
+    <col min="34" max="34" width="4.44140625" customWidth="1"/>
+    <col min="35" max="38" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="H1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="Z1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AI1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AH2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="Y3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="Q5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="Z5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AI5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="Q6" s="27">
+        <v>1</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="Z6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AI6" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27">
+        <v>2</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27">
+        <v>3</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="Q10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="Z10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AI10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="Q12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="Z12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AI12" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H13" s="27">
+        <v>1</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="Q13" s="27">
+        <v>1</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="Z13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AI13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="34"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AI14" s="27">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27">
+        <v>2</v>
+      </c>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+    </row>
+    <row r="17" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="Q17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="Z17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AI17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+    </row>
+    <row r="19" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="Q19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="Z19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+    </row>
+    <row r="20" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="Y20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+    </row>
+    <row r="21" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="Y21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+    </row>
+    <row r="23" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="Q23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="Z23" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
+      <c r="AO23" s="33"/>
+    </row>
+    <row r="24" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+    </row>
+    <row r="26" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="Q26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="Z26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+    </row>
+    <row r="27" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="P27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="Y27" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+    </row>
+    <row r="28" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="P28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="Y28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+    </row>
+    <row r="30" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="Q30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="Z30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="33"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="33"/>
+    </row>
+    <row r="31" spans="7:41" x14ac:dyDescent="0.3">
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="AI21:AO21"/>
+    <mergeCell ref="AI23:AO24"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="AI27:AO27"/>
+    <mergeCell ref="AI28:AO28"/>
+    <mergeCell ref="AI30:AO31"/>
+    <mergeCell ref="AI10:AL10"/>
+    <mergeCell ref="AI12:AL12"/>
+    <mergeCell ref="AM12:AO17"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AI20:AO20"/>
+    <mergeCell ref="Z23:AF24"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="Z30:AF31"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AM5:AO10"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AF17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="Q30:W31"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AF10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="U12:W17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H30:N31"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="U5:W10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="L12:N17"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H23:N24"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="L5:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P9/p9.xlsx
+++ b/P9/p9.xlsx
@@ -370,7 +370,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,19 +396,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,16 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,40 +715,40 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -766,11 +766,11 @@
       <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -785,9 +785,9 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6">
@@ -802,9 +802,9 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -824,12 +824,12 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -846,31 +846,31 @@
       <c r="H9" s="4"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="O12" s="18" t="s">
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="O12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="T12" s="18" t="s">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="T12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="J14" s="10">
@@ -1077,12 +1077,12 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="O18" s="19">
+      <c r="O18" s="24">
         <v>0</v>
       </c>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
       <c r="T18" s="16"/>
       <c r="U18" s="15"/>
       <c r="V18" s="16"/>
@@ -1303,12 +1303,12 @@
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="O24" s="17">
+      <c r="O24" s="27">
         <v>1</v>
       </c>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -1529,12 +1529,12 @@
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="O30" s="17">
+      <c r="O30" s="27">
         <v>2</v>
       </c>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
@@ -1675,12 +1675,12 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="O36" s="17">
+      <c r="O36" s="27">
         <v>4</v>
       </c>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
@@ -1688,6 +1688,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O12:R12"/>
     <mergeCell ref="T12:W12"/>
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="O18:R18"/>
@@ -1696,11 +1701,6 @@
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="F4:H6"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="O12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83811EB0-08EB-49F1-BB21-EF125C73DD92}">
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,266 +1729,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="Z1" s="18" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="Z1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AI1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="17"/>
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
       <c r="Y2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
       <c r="AH2" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
       <c r="P3" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
       <c r="Y3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="32" t="s">
+      <c r="Z3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
       <c r="AH3" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="32" t="s">
+      <c r="AI3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="24" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="34" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="Q5" s="31" t="s">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="Q5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="34" t="s">
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="Z5" s="31" t="s">
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="Z5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="34" t="s">
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AI5" s="31" t="s">
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AI5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="31"/>
     </row>
     <row r="6" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="H6" s="27">
+      <c r="E6" s="17"/>
+      <c r="H6" s="22">
         <v>1</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="Q6" s="27">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="Q6" s="22">
         <v>1</v>
       </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="Z6" s="27">
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="Z6" s="22">
         <v>1</v>
       </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AI6" s="27">
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AI6" s="22">
         <v>1</v>
       </c>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27">
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22">
         <v>5</v>
       </c>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="31"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="31"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
@@ -1996,777 +1996,742 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22">
         <v>2</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27">
+      <c r="T7" s="22"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22">
         <v>2</v>
       </c>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27">
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22">
         <v>2</v>
       </c>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22">
         <v>4</v>
       </c>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27">
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22">
         <v>4</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="34"/>
+      <c r="AM8" s="31"/>
+      <c r="AN8" s="31"/>
+      <c r="AO8" s="31"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>3</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22">
         <v>3</v>
       </c>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AI9" s="27"/>
-      <c r="AJ9" s="27">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22">
         <v>3</v>
       </c>
-      <c r="AK9" s="27"/>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="34"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="34"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="Q10" s="19" t="s">
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="Q10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="Z10" s="19" t="s">
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="Z10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AI10" s="19" t="s">
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AI10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="19"/>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="34"/>
-      <c r="AN10" s="34"/>
-      <c r="AO10" s="34"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
     </row>
     <row r="12" spans="1:41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="34" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="Q12" s="31" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="Q12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="34" t="s">
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="Z12" s="31" t="s">
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="Z12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="34" t="s">
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AI12" s="31" t="s">
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AI12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="34" t="s">
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H13" s="27">
+      <c r="H13" s="22">
         <v>1</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="Q13" s="27">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="Q13" s="22">
         <v>1</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="Z13" s="27">
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="Z13" s="22">
         <v>1</v>
       </c>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AI13" s="27">
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AI13" s="22">
         <v>1</v>
       </c>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27">
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22">
         <v>3</v>
       </c>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AI14" s="27">
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AI14" s="22">
         <v>4</v>
       </c>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22">
         <v>2</v>
       </c>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27">
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22">
         <v>2</v>
       </c>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22">
         <v>2</v>
       </c>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="31"/>
+      <c r="AN16" s="31"/>
+      <c r="AO16" s="31"/>
     </row>
     <row r="17" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="Q17" s="19" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="Q17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="Z17" s="19" t="s">
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="Z17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AI17" s="19" t="s">
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AI17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="34"/>
-      <c r="AN17" s="34"/>
-      <c r="AO17" s="34"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="31"/>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="31"/>
     </row>
     <row r="19" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="Q19" s="18" t="s">
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="Q19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="Z19" s="18" t="s">
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="Z19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
     </row>
     <row r="20" spans="7:41" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
       <c r="P20" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
       <c r="Y20" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="32" t="s">
+      <c r="Z20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
     </row>
     <row r="21" spans="7:41" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
       <c r="P21" t="s">
         <v>26</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
       <c r="Y21" t="s">
         <v>26</v>
       </c>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
     </row>
     <row r="23" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="Q23" s="33" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="Q23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="Z23" s="33" t="s">
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="Z23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
     </row>
     <row r="24" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
     </row>
     <row r="26" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="Q26" s="18" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="Q26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="Z26" s="18" t="s">
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="Z26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
     </row>
     <row r="27" spans="7:41" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
       <c r="P27" t="s">
         <v>25</v>
       </c>
-      <c r="Q27" s="32" t="s">
+      <c r="Q27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
       <c r="Y27" t="s">
         <v>25</v>
       </c>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
     </row>
     <row r="28" spans="7:41" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
       <c r="P28" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="32" t="s">
+      <c r="Q28" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
       <c r="Y28" t="s">
         <v>26</v>
       </c>
-      <c r="Z28" s="32" t="s">
+      <c r="Z28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
     </row>
     <row r="30" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="Q30" s="33" t="s">
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="Q30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="Z30" s="33" t="s">
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="Z30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
     </row>
     <row r="31" spans="7:41" x14ac:dyDescent="0.3">
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AI21:AO21"/>
-    <mergeCell ref="AI23:AO24"/>
-    <mergeCell ref="AI26:AL26"/>
-    <mergeCell ref="AI27:AO27"/>
-    <mergeCell ref="AI28:AO28"/>
-    <mergeCell ref="AI30:AO31"/>
-    <mergeCell ref="AI10:AL10"/>
-    <mergeCell ref="AI12:AL12"/>
-    <mergeCell ref="AM12:AO17"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="AI20:AO20"/>
-    <mergeCell ref="Z23:AF24"/>
-    <mergeCell ref="Z26:AC26"/>
-    <mergeCell ref="Z27:AF27"/>
-    <mergeCell ref="Z28:AF28"/>
-    <mergeCell ref="Z30:AF31"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AM5:AO10"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="AD12:AF17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Z20:AF20"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="Q27:W27"/>
-    <mergeCell ref="Q28:W28"/>
-    <mergeCell ref="Q30:W31"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AD5:AF10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="U12:W17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Q21:W21"/>
-    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="L5:N10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="H27:N27"/>
     <mergeCell ref="H28:N28"/>
     <mergeCell ref="H30:N31"/>
@@ -2783,15 +2748,50 @@
     <mergeCell ref="H21:N21"/>
     <mergeCell ref="H23:N24"/>
     <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="L5:N10"/>
+    <mergeCell ref="U12:W17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Q21:W21"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AD5:AF10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="Q27:W27"/>
+    <mergeCell ref="Q28:W28"/>
+    <mergeCell ref="Q30:W31"/>
+    <mergeCell ref="Q23:W24"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AD12:AF17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Z20:AF20"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AM5:AO10"/>
+    <mergeCell ref="Z23:AF24"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="Z27:AF27"/>
+    <mergeCell ref="Z28:AF28"/>
+    <mergeCell ref="Z30:AF31"/>
+    <mergeCell ref="AI30:AO31"/>
+    <mergeCell ref="AI10:AL10"/>
+    <mergeCell ref="AI12:AL12"/>
+    <mergeCell ref="AM12:AO17"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AI20:AO20"/>
+    <mergeCell ref="AI21:AO21"/>
+    <mergeCell ref="AI23:AO24"/>
+    <mergeCell ref="AI26:AL26"/>
+    <mergeCell ref="AI27:AO27"/>
+    <mergeCell ref="AI28:AO28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
